--- a/ICC/Load_Calculator.xlsx
+++ b/ICC/Load_Calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\FreeLancing\Load_Calculator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Design Files\Website\Github Rep\nervalcorp\specs\ICC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C66F0CB-FEE5-4086-8D4E-8A8199F7825B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{A670E6CD-8934-4164-A647-CB6037BB8438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="8" xr2:uid="{B375803B-AD97-497D-9FF1-DCB3A198EA0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="8" xr2:uid="{B375803B-AD97-497D-9FF1-DCB3A198EA0F}"/>
   </bookViews>
   <sheets>
     <sheet name="General Walk in Cooler" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,21 @@
     <sheet name="General Walk-in Freezer with DR" sheetId="30" r:id="rId10"/>
     <sheet name="Background" sheetId="2" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -734,17 +745,46 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -782,31 +822,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -817,17 +839,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1736,9 +1747,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1776,7 +1787,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1882,7 +1893,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2024,7 +2035,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2039,57 +2050,57 @@
       <selection activeCell="E10" sqref="E10:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="24.77734375" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.21875" customWidth="1"/>
-    <col min="19" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="K3" s="44" t="s">
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="K3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="46"/>
-    </row>
-    <row r="4" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="57"/>
+    </row>
+    <row r="4" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="58">
         <v>35</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
-      <c r="K4" s="53" t="s">
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="K4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
       <c r="N4" s="9">
         <f>O4/O9</f>
         <v>0.41714009569210198</v>
       </c>
-      <c r="O4" s="41">
+      <c r="O4" s="45">
         <f>(1/28.57)*(E5-E4)*(2*E9*G9+2*F9*G9+E9*F9)+IF(E10= "On Grade",Background!K4,IF(E10= "Above Grade",Background!K5,Background!K6))</f>
         <v>1979.3331272210239</v>
       </c>
-      <c r="P4" s="42"/>
+      <c r="P4" s="51"/>
       <c r="R4" t="s">
         <v>21</v>
       </c>
@@ -2097,29 +2108,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="61">
         <v>85</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
-      <c r="K5" s="39" t="s">
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
+      <c r="K5" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
       <c r="N5" s="9">
         <f>O5/O9</f>
         <v>0.13522983627903298</v>
       </c>
-      <c r="O5" s="41">
+      <c r="O5" s="45">
         <f>2*E9*F9*G9*0.77*10/24</f>
         <v>641.66666666666663</v>
       </c>
-      <c r="P5" s="42"/>
+      <c r="P5" s="51"/>
       <c r="R5" t="s">
         <v>20</v>
       </c>
@@ -2127,56 +2138,56 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="61">
         <v>80</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
-      <c r="K6" s="39" t="s">
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
+      <c r="K6" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
       <c r="N6" s="9">
         <f>O6/O9</f>
         <v>0.2156852804810068</v>
       </c>
-      <c r="O6" s="41">
+      <c r="O6" s="45">
         <f>E9*F9*3.41+INDEX(Background!F4:F19, MATCH(E9*F9*G9, Background!C4:C19,1))</f>
         <v>1023.4284</v>
       </c>
-      <c r="P6" s="42"/>
-    </row>
-    <row r="7" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="P6" s="51"/>
+    </row>
+    <row r="7" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="61">
         <v>55</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="52"/>
-      <c r="K7" s="39" t="s">
+      <c r="F7" s="62"/>
+      <c r="G7" s="63"/>
+      <c r="K7" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
       <c r="N7" s="9">
         <f>O7/O9</f>
         <v>0.23194478754785824</v>
       </c>
-      <c r="O7" s="41">
+      <c r="O7" s="45">
         <f>0.0001367*(E9*F9*G9)^(0.5425)*Background!J23*3412.142</f>
         <v>1100.579892513101</v>
       </c>
-      <c r="P7" s="42"/>
-    </row>
-    <row r="8" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D8" s="43" t="s">
+      <c r="P7" s="51"/>
+    </row>
+    <row r="8" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D8" s="54" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -2188,15 +2199,15 @@
       <c r="G8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="56"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="43"/>
       <c r="S8" s="10"/>
     </row>
-    <row r="9" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D9" s="43"/>
+    <row r="9" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D9" s="54"/>
       <c r="E9" s="12">
         <v>10</v>
       </c>
@@ -2206,88 +2217,79 @@
       <c r="G9" s="13">
         <v>10</v>
       </c>
-      <c r="K9" s="57" t="s">
+      <c r="K9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="41">
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="45">
         <f>O4+O5+O6+O7</f>
         <v>4745.0080864007914</v>
       </c>
-      <c r="P9" s="56"/>
+      <c r="P9" s="43"/>
       <c r="S9" s="10"/>
     </row>
-    <row r="10" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
-      <c r="K10" s="57" t="s">
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
+      <c r="K10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="41">
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="45">
         <f>O9*(100+S4)/100</f>
         <v>5219.5088950408708</v>
       </c>
-      <c r="P10" s="42"/>
-    </row>
-    <row r="11" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P10" s="51"/>
+    </row>
+    <row r="11" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-      <c r="K11" s="58" t="s">
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+      <c r="K11" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="61">
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="49">
         <f>O10*24/S5</f>
         <v>6959.3451933878277</v>
       </c>
-      <c r="P11" s="62"/>
+      <c r="P11" s="50"/>
       <c r="S11" s="31"/>
     </row>
-    <row r="14" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:19" x14ac:dyDescent="0.25">
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:19" x14ac:dyDescent="0.25">
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S17" s="8"/>
     </row>
-    <row r="18" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S18" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="O10:P10"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="O7:P7"/>
@@ -2304,6 +2306,15 @@
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="K6:M6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="O10:P10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2329,54 +2340,54 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="24.109375" customWidth="1"/>
-    <col min="18" max="18" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="67" t="s">
+    <row r="2" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="K3" s="44" t="s">
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="K3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="46"/>
-    </row>
-    <row r="4" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D4" s="68" t="s">
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="57"/>
+    </row>
+    <row r="4" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="58">
         <v>-10</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
-      <c r="K4" s="53" t="s">
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="K4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
       <c r="N4" s="9">
         <f>O4/O9</f>
         <v>0.36995131855919705</v>
       </c>
-      <c r="O4" s="41">
+      <c r="O4" s="45">
         <f>(1/28.57)*(E5-E4)*(2*E9*G9+2*F9*G9+E9*F9)+IF(E10= "On Grade",Background!U4,Background!U5)</f>
         <v>2154.1935637933325</v>
       </c>
-      <c r="P4" s="42"/>
+      <c r="P4" s="51"/>
       <c r="R4" t="s">
         <v>21</v>
       </c>
@@ -2384,29 +2395,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D5" s="68" t="s">
+    <row r="5" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D5" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="61">
         <v>85</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
-      <c r="K5" s="39" t="s">
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
+      <c r="K5" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
       <c r="N5" s="9">
         <f>O5/O9</f>
         <v>3.0769261262888297E-2</v>
       </c>
-      <c r="O5" s="41">
+      <c r="O5" s="45">
         <f>E9*F9*G9*0.43*10/24</f>
         <v>179.16666666666666</v>
       </c>
-      <c r="P5" s="42"/>
+      <c r="P5" s="51"/>
       <c r="R5" t="s">
         <v>20</v>
       </c>
@@ -2414,56 +2425,56 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D6" s="68" t="s">
+    <row r="6" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D6" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="61">
         <v>95</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
-      <c r="K6" s="39" t="s">
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
+      <c r="K6" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
       <c r="N6" s="9">
         <f>O6/O9</f>
         <v>0.16599247076683821</v>
       </c>
-      <c r="O6" s="41">
+      <c r="O6" s="45">
         <f>E9*F9*3.41+INDEX(Background!P4:P20, MATCH(E9*F9*G9, Background!M4:M20,1))</f>
         <v>966.55936666666662</v>
       </c>
-      <c r="P6" s="42"/>
-    </row>
-    <row r="7" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D7" s="68" t="s">
+      <c r="P6" s="51"/>
+    </row>
+    <row r="7" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D7" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="61">
         <v>55</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="52"/>
-      <c r="K7" s="39" t="s">
+      <c r="F7" s="62"/>
+      <c r="G7" s="63"/>
+      <c r="K7" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
       <c r="N7" s="9">
         <f>O7/O9</f>
         <v>0.43328694941107659</v>
       </c>
-      <c r="O7" s="41">
+      <c r="O7" s="45">
         <f>0.0001367*(E9*F9*G9)^(0.5425)*Background!T23*3412.142*1.45*MIN(1+0.15*(E12-1),1.4)</f>
         <v>2522.9912987798548</v>
       </c>
-      <c r="P7" s="42"/>
-    </row>
-    <row r="8" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D8" s="71" t="s">
+      <c r="P7" s="51"/>
+    </row>
+    <row r="8" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D8" s="68" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -2475,15 +2486,15 @@
       <c r="G8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="56"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="43"/>
       <c r="S8" s="10"/>
     </row>
-    <row r="9" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D9" s="71"/>
+    <row r="9" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D9" s="68"/>
       <c r="E9" s="12">
         <v>10</v>
       </c>
@@ -2493,77 +2504,91 @@
       <c r="G9" s="13">
         <v>10</v>
       </c>
-      <c r="K9" s="57" t="s">
+      <c r="K9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="41">
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="45">
         <f>O4+O5+O6+O7</f>
         <v>5822.9108959065197</v>
       </c>
-      <c r="P9" s="56"/>
+      <c r="P9" s="43"/>
       <c r="S9" s="10"/>
     </row>
-    <row r="10" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D10" s="68" t="s">
+    <row r="10" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D10" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
-      <c r="K10" s="57" t="s">
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
+      <c r="K10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="41">
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="45">
         <f>O9*(100+S4)/100</f>
         <v>6405.2019854971722</v>
       </c>
-      <c r="P10" s="42"/>
-    </row>
-    <row r="11" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="68" t="s">
+      <c r="P10" s="51"/>
+    </row>
+    <row r="11" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="55"/>
-      <c r="G11" s="56"/>
-      <c r="K11" s="58" t="s">
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
+      <c r="K11" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="61">
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="49">
         <f>O10*24/S5</f>
         <v>8540.2693139962284</v>
       </c>
-      <c r="P11" s="62"/>
+      <c r="P11" s="50"/>
       <c r="S11" s="32"/>
     </row>
-    <row r="12" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="70" t="s">
+    <row r="12" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="46">
         <v>1</v>
       </c>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="O7:P7"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="K11:N11"/>
     <mergeCell ref="O11:P11"/>
@@ -2576,20 +2601,6 @@
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="K10:N10"/>
     <mergeCell ref="O10:P10"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="O5:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2616,44 +2627,44 @@
       <selection activeCell="T98" sqref="T98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="9" max="9" width="21.88671875" customWidth="1"/>
-    <col min="11" max="11" width="11.21875" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" customWidth="1"/>
-    <col min="19" max="19" width="12.88671875" customWidth="1"/>
-    <col min="20" max="20" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" customWidth="1"/>
+    <col min="20" max="20" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C2" s="64" t="s">
+    <row r="2" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C2" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66"/>
-      <c r="M2" s="64" t="s">
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="71"/>
+      <c r="M2" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="66"/>
-    </row>
-    <row r="3" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="71"/>
+    </row>
+    <row r="3" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C3" s="14" t="s">
         <v>31</v>
       </c>
@@ -2697,7 +2708,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C4" s="27">
         <v>0</v>
       </c>
@@ -2747,7 +2758,7 @@
         <v>491.61043463687452</v>
       </c>
     </row>
-    <row r="5" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C5" s="25">
         <v>600</v>
       </c>
@@ -2791,7 +2802,7 @@
         <v>293.93564356435644</v>
       </c>
     </row>
-    <row r="6" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C6" s="25">
         <v>1350</v>
       </c>
@@ -2831,7 +2842,7 @@
       </c>
       <c r="U6" s="28"/>
     </row>
-    <row r="7" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C7" s="25">
         <v>2570</v>
       </c>
@@ -2861,7 +2872,7 @@
       </c>
       <c r="U7" s="28"/>
     </row>
-    <row r="8" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C8" s="25">
         <v>4810</v>
       </c>
@@ -2907,7 +2918,7 @@
       </c>
       <c r="U8" s="28"/>
     </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C9" s="25">
         <v>5770</v>
       </c>
@@ -2951,7 +2962,7 @@
       </c>
       <c r="U9" s="28"/>
     </row>
-    <row r="10" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C10" s="25">
         <v>6260</v>
       </c>
@@ -2995,7 +3006,7 @@
       </c>
       <c r="U10" s="28"/>
     </row>
-    <row r="11" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C11" s="25">
         <v>12100</v>
       </c>
@@ -3039,7 +3050,7 @@
       </c>
       <c r="U11" s="28"/>
     </row>
-    <row r="12" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C12" s="25">
         <v>16900</v>
       </c>
@@ -3069,7 +3080,7 @@
       </c>
       <c r="U12" s="28"/>
     </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C13" s="25">
         <v>21700</v>
       </c>
@@ -3099,7 +3110,7 @@
       </c>
       <c r="U13" s="28"/>
     </row>
-    <row r="14" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C14" s="25">
         <v>36100</v>
       </c>
@@ -3143,7 +3154,7 @@
       </c>
       <c r="U14" s="28"/>
     </row>
-    <row r="15" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C15" s="25">
         <v>45100</v>
       </c>
@@ -3187,7 +3198,7 @@
       </c>
       <c r="U15" s="28"/>
     </row>
-    <row r="16" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C16" s="25">
         <v>58100</v>
       </c>
@@ -3217,7 +3228,7 @@
       </c>
       <c r="U16" s="28"/>
     </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C17" s="25">
         <v>105100</v>
       </c>
@@ -3261,7 +3272,7 @@
       </c>
       <c r="U17" s="28"/>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C18" s="25">
         <v>155000</v>
       </c>
@@ -3305,7 +3316,7 @@
       </c>
       <c r="U18" s="28"/>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C19" s="26">
         <v>10000000000</v>
       </c>
@@ -3330,7 +3341,7 @@
       </c>
       <c r="U19" s="28"/>
     </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C20" s="33"/>
       <c r="I20" t="s">
         <v>40</v>
@@ -3357,7 +3368,7 @@
       </c>
       <c r="U20" s="28"/>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C21" s="33"/>
       <c r="I21" t="s">
         <v>41</v>
@@ -3377,13 +3388,13 @@
       </c>
       <c r="U21" s="28"/>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C22" s="33"/>
       <c r="K22" s="28"/>
       <c r="M22" s="33"/>
       <c r="U22" s="28"/>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C23" s="33"/>
       <c r="I23" t="s">
         <v>42</v>
@@ -3403,7 +3414,7 @@
       </c>
       <c r="U23" s="28"/>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C24" s="17"/>
       <c r="D24" s="34"/>
       <c r="E24" s="34"/>
@@ -3423,31 +3434,31 @@
       <c r="T24" s="34"/>
       <c r="U24" s="18"/>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C27" s="64" t="s">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C27" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="66"/>
-      <c r="M27" s="64" t="s">
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="71"/>
+      <c r="M27" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="N27" s="65"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="65"/>
-      <c r="R27" s="65"/>
-      <c r="S27" s="65"/>
-      <c r="T27" s="65"/>
-      <c r="U27" s="66"/>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="N27" s="70"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="70"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="71"/>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C28" s="14" t="s">
         <v>31</v>
       </c>
@@ -3491,7 +3502,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C29" s="27">
         <v>0</v>
       </c>
@@ -3541,7 +3552,7 @@
         <v>17636.21423823568</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C30" s="25">
         <v>600</v>
       </c>
@@ -3585,7 +3596,7 @@
         <v>52884.615384615383</v>
       </c>
     </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C31" s="25">
         <v>1350</v>
       </c>
@@ -3615,7 +3626,7 @@
       </c>
       <c r="U31" s="28"/>
     </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C32" s="25">
         <v>2570</v>
       </c>
@@ -3645,7 +3656,7 @@
       </c>
       <c r="U32" s="28"/>
     </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C33" s="25">
         <v>4810</v>
       </c>
@@ -3691,7 +3702,7 @@
       </c>
       <c r="U33" s="28"/>
     </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C34" s="25">
         <v>5770</v>
       </c>
@@ -3735,7 +3746,7 @@
       </c>
       <c r="U34" s="28"/>
     </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C35" s="25">
         <v>6260</v>
       </c>
@@ -3779,7 +3790,7 @@
       </c>
       <c r="U35" s="28"/>
     </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C36" s="25">
         <v>12100</v>
       </c>
@@ -3823,7 +3834,7 @@
       </c>
       <c r="U36" s="28"/>
     </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C37" s="25">
         <v>16900</v>
       </c>
@@ -3853,7 +3864,7 @@
       </c>
       <c r="U37" s="28"/>
     </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C38" s="25">
         <v>21700</v>
       </c>
@@ -3883,7 +3894,7 @@
       </c>
       <c r="U38" s="28"/>
     </row>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C39" s="25">
         <v>36100</v>
       </c>
@@ -3927,7 +3938,7 @@
       </c>
       <c r="U39" s="28"/>
     </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C40" s="25">
         <v>45100</v>
       </c>
@@ -3971,7 +3982,7 @@
       </c>
       <c r="U40" s="28"/>
     </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C41" s="25">
         <v>58100</v>
       </c>
@@ -4001,7 +4012,7 @@
       </c>
       <c r="U41" s="28"/>
     </row>
-    <row r="42" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C42" s="25">
         <v>105100</v>
       </c>
@@ -4045,7 +4056,7 @@
       </c>
       <c r="U42" s="28"/>
     </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C43" s="25">
         <v>155000</v>
       </c>
@@ -4089,7 +4100,7 @@
       </c>
       <c r="U43" s="28"/>
     </row>
-    <row r="44" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C44" s="26">
         <v>10000000000</v>
       </c>
@@ -4109,7 +4120,7 @@
       </c>
       <c r="U44" s="28"/>
     </row>
-    <row r="45" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C45" s="33"/>
       <c r="I45" t="s">
         <v>40</v>
@@ -4129,7 +4140,7 @@
       </c>
       <c r="U45" s="28"/>
     </row>
-    <row r="46" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C46" s="33"/>
       <c r="I46" t="s">
         <v>41</v>
@@ -4149,13 +4160,13 @@
       </c>
       <c r="U46" s="28"/>
     </row>
-    <row r="47" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C47" s="33"/>
       <c r="K47" s="28"/>
       <c r="M47" s="33"/>
       <c r="U47" s="28"/>
     </row>
-    <row r="48" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C48" s="33"/>
       <c r="I48" t="s">
         <v>42</v>
@@ -4175,7 +4186,7 @@
       </c>
       <c r="U48" s="28"/>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C49" s="17"/>
       <c r="D49" s="34"/>
       <c r="E49" s="34"/>
@@ -4195,31 +4206,31 @@
       <c r="T49" s="34"/>
       <c r="U49" s="18"/>
     </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C52" s="64" t="s">
+    <row r="52" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C52" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="65"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="65"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="66"/>
-      <c r="M52" s="64" t="s">
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="70"/>
+      <c r="J52" s="70"/>
+      <c r="K52" s="71"/>
+      <c r="M52" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="N52" s="65"/>
-      <c r="O52" s="65"/>
-      <c r="P52" s="65"/>
-      <c r="Q52" s="65"/>
-      <c r="R52" s="65"/>
-      <c r="S52" s="65"/>
-      <c r="T52" s="65"/>
-      <c r="U52" s="66"/>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="N52" s="70"/>
+      <c r="O52" s="70"/>
+      <c r="P52" s="70"/>
+      <c r="Q52" s="70"/>
+      <c r="R52" s="70"/>
+      <c r="S52" s="70"/>
+      <c r="T52" s="70"/>
+      <c r="U52" s="71"/>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C53" s="14" t="s">
         <v>31</v>
       </c>
@@ -4263,7 +4274,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C54" s="27">
         <v>0</v>
       </c>
@@ -4313,7 +4324,7 @@
         <v>12446.418057531191</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C55" s="25">
         <v>600</v>
       </c>
@@ -4357,7 +4368,7 @@
         <v>14621.240252506497</v>
       </c>
     </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C56" s="25">
         <v>1350</v>
       </c>
@@ -4387,7 +4398,7 @@
       </c>
       <c r="U56" s="28"/>
     </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C57" s="25">
         <v>2570</v>
       </c>
@@ -4417,7 +4428,7 @@
       </c>
       <c r="U57" s="28"/>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C58" s="25">
         <v>4810</v>
       </c>
@@ -4463,7 +4474,7 @@
       </c>
       <c r="U58" s="28"/>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C59" s="25">
         <v>5770</v>
       </c>
@@ -4507,7 +4518,7 @@
       </c>
       <c r="U59" s="28"/>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C60" s="25">
         <v>6260</v>
       </c>
@@ -4551,7 +4562,7 @@
       </c>
       <c r="U60" s="28"/>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C61" s="25">
         <v>12100</v>
       </c>
@@ -4595,7 +4606,7 @@
       </c>
       <c r="U61" s="28"/>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C62" s="25">
         <v>16900</v>
       </c>
@@ -4625,7 +4636,7 @@
       </c>
       <c r="U62" s="28"/>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C63" s="25">
         <v>21700</v>
       </c>
@@ -4655,7 +4666,7 @@
       </c>
       <c r="U63" s="28"/>
     </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C64" s="25">
         <v>36100</v>
       </c>
@@ -4699,7 +4710,7 @@
       </c>
       <c r="U64" s="28"/>
     </row>
-    <row r="65" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C65" s="25">
         <v>45100</v>
       </c>
@@ -4743,7 +4754,7 @@
       </c>
       <c r="U65" s="28"/>
     </row>
-    <row r="66" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C66" s="25">
         <v>58100</v>
       </c>
@@ -4773,7 +4784,7 @@
       </c>
       <c r="U66" s="28"/>
     </row>
-    <row r="67" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C67" s="25">
         <v>105100</v>
       </c>
@@ -4817,7 +4828,7 @@
       </c>
       <c r="U67" s="28"/>
     </row>
-    <row r="68" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C68" s="25">
         <v>155000</v>
       </c>
@@ -4861,7 +4872,7 @@
       </c>
       <c r="U68" s="28"/>
     </row>
-    <row r="69" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C69" s="26">
         <v>10000000000</v>
       </c>
@@ -4886,7 +4897,7 @@
       </c>
       <c r="U69" s="28"/>
     </row>
-    <row r="70" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C70" s="33"/>
       <c r="I70" t="s">
         <v>40</v>
@@ -4913,7 +4924,7 @@
       </c>
       <c r="U70" s="28"/>
     </row>
-    <row r="71" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C71" s="33"/>
       <c r="I71" t="s">
         <v>41</v>
@@ -4933,13 +4944,13 @@
       </c>
       <c r="U71" s="28"/>
     </row>
-    <row r="72" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C72" s="33"/>
       <c r="K72" s="28"/>
       <c r="M72" s="33"/>
       <c r="U72" s="28"/>
     </row>
-    <row r="73" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C73" s="33"/>
       <c r="I73" t="s">
         <v>42</v>
@@ -4959,7 +4970,7 @@
       </c>
       <c r="U73" s="28"/>
     </row>
-    <row r="74" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C74" s="17"/>
       <c r="D74" s="34"/>
       <c r="E74" s="34"/>
@@ -4979,31 +4990,31 @@
       <c r="T74" s="34"/>
       <c r="U74" s="18"/>
     </row>
-    <row r="77" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C77" s="64" t="s">
+    <row r="77" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C77" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="D77" s="65"/>
-      <c r="E77" s="65"/>
-      <c r="F77" s="65"/>
-      <c r="G77" s="65"/>
-      <c r="H77" s="65"/>
-      <c r="I77" s="65"/>
-      <c r="J77" s="65"/>
-      <c r="K77" s="66"/>
-      <c r="M77" s="64" t="s">
+      <c r="D77" s="70"/>
+      <c r="E77" s="70"/>
+      <c r="F77" s="70"/>
+      <c r="G77" s="70"/>
+      <c r="H77" s="70"/>
+      <c r="I77" s="70"/>
+      <c r="J77" s="70"/>
+      <c r="K77" s="71"/>
+      <c r="M77" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="N77" s="65"/>
-      <c r="O77" s="65"/>
-      <c r="P77" s="65"/>
-      <c r="Q77" s="65"/>
-      <c r="R77" s="65"/>
-      <c r="S77" s="65"/>
-      <c r="T77" s="65"/>
-      <c r="U77" s="66"/>
-    </row>
-    <row r="78" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="N77" s="70"/>
+      <c r="O77" s="70"/>
+      <c r="P77" s="70"/>
+      <c r="Q77" s="70"/>
+      <c r="R77" s="70"/>
+      <c r="S77" s="70"/>
+      <c r="T77" s="70"/>
+      <c r="U77" s="71"/>
+    </row>
+    <row r="78" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C78" s="14" t="s">
         <v>31</v>
       </c>
@@ -5047,7 +5058,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C79" s="27">
         <v>0</v>
       </c>
@@ -5097,7 +5108,7 @@
         <v>22091.891993886227</v>
       </c>
     </row>
-    <row r="80" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C80" s="25">
         <v>600</v>
       </c>
@@ -5141,7 +5152,7 @@
         <v>79326.923076923078</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C81" s="25">
         <v>1350</v>
       </c>
@@ -5171,7 +5182,7 @@
       </c>
       <c r="U81" s="28"/>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C82" s="25">
         <v>2570</v>
       </c>
@@ -5201,7 +5212,7 @@
       </c>
       <c r="U82" s="28"/>
     </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C83" s="25">
         <v>4810</v>
       </c>
@@ -5247,7 +5258,7 @@
       </c>
       <c r="U83" s="28"/>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C84" s="25">
         <v>5770</v>
       </c>
@@ -5291,7 +5302,7 @@
       </c>
       <c r="U84" s="28"/>
     </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C85" s="25">
         <v>6260</v>
       </c>
@@ -5335,7 +5346,7 @@
       </c>
       <c r="U85" s="28"/>
     </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C86" s="25">
         <v>12100</v>
       </c>
@@ -5379,7 +5390,7 @@
       </c>
       <c r="U86" s="28"/>
     </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C87" s="25">
         <v>16900</v>
       </c>
@@ -5409,7 +5420,7 @@
       </c>
       <c r="U87" s="28"/>
     </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C88" s="25">
         <v>21700</v>
       </c>
@@ -5439,7 +5450,7 @@
       </c>
       <c r="U88" s="28"/>
     </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C89" s="25">
         <v>36100</v>
       </c>
@@ -5483,7 +5494,7 @@
       </c>
       <c r="U89" s="28"/>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C90" s="25">
         <v>45100</v>
       </c>
@@ -5527,7 +5538,7 @@
       </c>
       <c r="U90" s="28"/>
     </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C91" s="25">
         <v>58100</v>
       </c>
@@ -5557,7 +5568,7 @@
       </c>
       <c r="U91" s="28"/>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C92" s="25">
         <v>105100</v>
       </c>
@@ -5601,7 +5612,7 @@
       </c>
       <c r="U92" s="28"/>
     </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C93" s="25">
         <v>155000</v>
       </c>
@@ -5645,7 +5656,7 @@
       </c>
       <c r="U93" s="28"/>
     </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C94" s="26">
         <v>10000000000</v>
       </c>
@@ -5665,7 +5676,7 @@
       </c>
       <c r="U94" s="28"/>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C95" s="33"/>
       <c r="I95" t="s">
         <v>40</v>
@@ -5685,7 +5696,7 @@
       </c>
       <c r="U95" s="28"/>
     </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C96" s="33"/>
       <c r="I96" t="s">
         <v>41</v>
@@ -5705,13 +5716,13 @@
       </c>
       <c r="U96" s="28"/>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C97" s="33"/>
       <c r="K97" s="28"/>
       <c r="M97" s="33"/>
       <c r="U97" s="28"/>
     </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C98" s="33"/>
       <c r="I98" t="s">
         <v>42</v>
@@ -5731,7 +5742,7 @@
       </c>
       <c r="U98" s="28"/>
     </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C99" s="17"/>
       <c r="D99" s="34"/>
       <c r="E99" s="34"/>
@@ -5775,56 +5786,56 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="24.88671875" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
-    <col min="18" max="18" width="15.6640625" customWidth="1"/>
-    <col min="19" max="19" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="K3" s="44" t="s">
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="K3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="46"/>
-    </row>
-    <row r="4" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="57"/>
+    </row>
+    <row r="4" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="58">
         <v>-10</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
-      <c r="K4" s="53" t="s">
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="K4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
       <c r="N4" s="9">
         <f>O4/O9</f>
         <v>0.42742668552515328</v>
       </c>
-      <c r="O4" s="41">
+      <c r="O4" s="45">
         <f>(1/28.57)*(E5-E4)*(2*E9*G9+2*F9*G9+E9*F9)+IF(E10= "On Grade",Background!U4,Background!U5)</f>
         <v>2154.1935637933325</v>
       </c>
-      <c r="P4" s="42"/>
+      <c r="P4" s="51"/>
       <c r="R4" t="s">
         <v>21</v>
       </c>
@@ -5832,29 +5843,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="61">
         <v>85</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
-      <c r="K5" s="39" t="s">
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
+      <c r="K5" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
       <c r="N5" s="9">
         <f>O5/O9</f>
         <v>3.5549551246022673E-2</v>
       </c>
-      <c r="O5" s="41">
+      <c r="O5" s="45">
         <f>E9*F9*G9*0.43*10/24</f>
         <v>179.16666666666666</v>
       </c>
-      <c r="P5" s="42"/>
+      <c r="P5" s="51"/>
       <c r="R5" t="s">
         <v>20</v>
       </c>
@@ -5862,56 +5873,56 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="61">
         <v>95</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
-      <c r="K6" s="39" t="s">
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
+      <c r="K6" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
       <c r="N6" s="9">
         <f>O6/O9</f>
         <v>0.19178093993101333</v>
       </c>
-      <c r="O6" s="41">
+      <c r="O6" s="45">
         <f>E9*F9*3.41+INDEX(Background!P4:P20, MATCH(E9*F9*G9, Background!M4:M20,1))</f>
         <v>966.55936666666662</v>
       </c>
-      <c r="P6" s="42"/>
-    </row>
-    <row r="7" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="P6" s="51"/>
+    </row>
+    <row r="7" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="61">
         <v>55</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="52"/>
-      <c r="K7" s="39" t="s">
+      <c r="F7" s="62"/>
+      <c r="G7" s="63"/>
+      <c r="K7" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
       <c r="N7" s="9">
         <f>O7/O9</f>
         <v>0.34524282329781081</v>
       </c>
-      <c r="O7" s="41">
+      <c r="O7" s="45">
         <f>0.0001367*(E9*F9*G9)^(0.5425)*Background!T23*3412.142</f>
         <v>1739.9939991585206</v>
       </c>
-      <c r="P7" s="42"/>
-    </row>
-    <row r="8" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D8" s="43" t="s">
+      <c r="P7" s="51"/>
+    </row>
+    <row r="8" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D8" s="54" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -5923,15 +5934,15 @@
       <c r="G8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="56"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="43"/>
       <c r="S8" s="10"/>
     </row>
-    <row r="9" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D9" s="43"/>
+    <row r="9" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D9" s="54"/>
       <c r="E9" s="12">
         <v>10</v>
       </c>
@@ -5941,70 +5952,84 @@
       <c r="G9" s="13">
         <v>10</v>
       </c>
-      <c r="K9" s="57" t="s">
+      <c r="K9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="41">
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="45">
         <f>O4+O5+O6+O7</f>
         <v>5039.913596285186</v>
       </c>
-      <c r="P9" s="56"/>
+      <c r="P9" s="43"/>
       <c r="S9" s="10"/>
     </row>
-    <row r="10" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
-      <c r="K10" s="57" t="s">
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
+      <c r="K10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="41">
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="45">
         <f>O9*(100+S4)/100</f>
         <v>5543.9049559137047</v>
       </c>
-      <c r="P10" s="42"/>
-    </row>
-    <row r="11" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P10" s="51"/>
+    </row>
+    <row r="11" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-      <c r="K11" s="58" t="s">
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+      <c r="K11" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="61">
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="49">
         <f>O10*24/S5</f>
         <v>7391.8732745516063</v>
       </c>
-      <c r="P11" s="62"/>
+      <c r="P11" s="50"/>
       <c r="S11" s="32"/>
     </row>
-    <row r="17" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S17" s="8"/>
     </row>
-    <row r="18" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S18" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E11:G11"/>
@@ -6016,20 +6041,6 @@
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="K9:N9"/>
     <mergeCell ref="O9:P9"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O7:P7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -6056,55 +6067,55 @@
       <selection activeCell="E10" sqref="E10:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="K3" s="44" t="s">
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="K3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="46"/>
-    </row>
-    <row r="4" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="57"/>
+    </row>
+    <row r="4" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="58">
         <v>40</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
-      <c r="K4" s="53" t="s">
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="K4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
       <c r="N4" s="9">
         <f>O4/O9</f>
         <v>0.21994748399460673</v>
       </c>
-      <c r="O4" s="41">
+      <c r="O4" s="45">
         <f>(1/28.57)*(E5-E4)*(2*E9*G9+2*F9*G9+E9*F9)+IF(E10= "On Grade",Background!K29,Background!K30)</f>
         <v>35659.187001762679</v>
       </c>
-      <c r="P4" s="42"/>
+      <c r="P4" s="51"/>
       <c r="R4" t="s">
         <v>21</v>
       </c>
@@ -6112,29 +6123,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="61">
         <v>85</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
-      <c r="K5" s="39" t="s">
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
+      <c r="K5" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
       <c r="N5" s="9">
         <f>O5/O9</f>
         <v>0.53430693190203682</v>
       </c>
-      <c r="O5" s="41">
+      <c r="O5" s="45">
         <f>2*E9*F9*G9*10*0.77/16</f>
         <v>86625</v>
       </c>
-      <c r="P5" s="42"/>
+      <c r="P5" s="51"/>
       <c r="R5" t="s">
         <v>20</v>
       </c>
@@ -6142,56 +6153,56 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="61">
         <v>78</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
-      <c r="K6" s="39" t="s">
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
+      <c r="K6" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
       <c r="N6" s="9">
         <f>O6/O9</f>
         <v>0.12371229492954672</v>
       </c>
-      <c r="O6" s="41">
+      <c r="O6" s="45">
         <f>E9*F9*3.41+INDEX(Background!F29:F44, MATCH(E9*F9*G9, Background!C29:C44,1))</f>
         <v>20056.968959999998</v>
       </c>
-      <c r="P6" s="42"/>
-    </row>
-    <row r="7" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="P6" s="51"/>
+    </row>
+    <row r="7" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="61">
         <v>55</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="52"/>
-      <c r="K7" s="39" t="s">
+      <c r="F7" s="62"/>
+      <c r="G7" s="63"/>
+      <c r="K7" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
       <c r="N7" s="9">
         <f>O7/O9</f>
         <v>0.12203328917380984</v>
       </c>
-      <c r="O7" s="41">
+      <c r="O7" s="45">
         <f>1.7*0.0001367*(E9*F9*G9)^(0.5425)*Background!J48*3412.142</f>
         <v>19784.758616269377</v>
       </c>
-      <c r="P7" s="42"/>
-    </row>
-    <row r="8" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D8" s="63" t="s">
+      <c r="P7" s="51"/>
+    </row>
+    <row r="8" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D8" s="66" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -6203,15 +6214,15 @@
       <c r="G8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="56"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="43"/>
       <c r="S8" s="10"/>
     </row>
-    <row r="9" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D9" s="63"/>
+    <row r="9" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D9" s="66"/>
       <c r="E9" s="12">
         <v>60</v>
       </c>
@@ -6221,79 +6232,70 @@
       <c r="G9" s="13">
         <v>30</v>
       </c>
-      <c r="K9" s="57" t="s">
+      <c r="K9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="41">
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="45">
         <f>O4+O5+O6+O7</f>
         <v>162125.91457803204</v>
       </c>
-      <c r="P9" s="56"/>
+      <c r="P9" s="43"/>
       <c r="S9" s="10"/>
     </row>
-    <row r="10" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
-      <c r="K10" s="57" t="s">
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
+      <c r="K10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="41">
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="45">
         <f>O9*(100+S4)/100</f>
         <v>178338.50603583525</v>
       </c>
-      <c r="P10" s="42"/>
-    </row>
-    <row r="11" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P10" s="51"/>
+    </row>
+    <row r="11" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-      <c r="K11" s="58" t="s">
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+      <c r="K11" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="61">
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="49">
         <f>O10*24/S5</f>
         <v>267507.75905375287</v>
       </c>
-      <c r="P11" s="62"/>
+      <c r="P11" s="50"/>
       <c r="S11" s="31"/>
     </row>
-    <row r="17" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S17" s="8"/>
     </row>
-    <row r="18" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S18" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="O10:P10"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E11:G11"/>
@@ -6310,6 +6312,15 @@
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="E7:G7"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="O10:P10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -6336,54 +6347,54 @@
       <selection activeCell="E10" sqref="E10:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.77734375" customWidth="1"/>
-    <col min="18" max="18" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="K3" s="44" t="s">
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="K3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="46"/>
-    </row>
-    <row r="4" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="57"/>
+    </row>
+    <row r="4" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="58">
         <v>30</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
-      <c r="K4" s="39" t="s">
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="K4" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="36">
         <f>O4/O9</f>
         <v>0.22876075069078319</v>
       </c>
-      <c r="O4" s="41">
+      <c r="O4" s="45">
         <f>(1/28.57)*(E5-E4)*(2*E9*G9+2*F9*G9+E9*F9)+IF(E10= "On Grade",Background!U29,Background!U30)</f>
         <v>36117.138284437991</v>
       </c>
-      <c r="P4" s="42"/>
+      <c r="P4" s="51"/>
       <c r="R4" t="s">
         <v>21</v>
       </c>
@@ -6391,29 +6402,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="61">
         <v>85</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
-      <c r="K5" s="39" t="s">
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
+      <c r="K5" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
       <c r="N5" s="36">
         <f>O5/O9</f>
         <v>0.54867027039978711</v>
       </c>
-      <c r="O5" s="41">
+      <c r="O5" s="45">
         <f>2*E9*F9*G9*10*0.77/16</f>
         <v>86625</v>
       </c>
-      <c r="P5" s="42"/>
+      <c r="P5" s="51"/>
       <c r="R5" t="s">
         <v>20</v>
       </c>
@@ -6421,56 +6432,56 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="61">
         <v>87</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
-      <c r="K6" s="39" t="s">
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
+      <c r="K6" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
       <c r="N6" s="36">
         <f>O6/O9</f>
         <v>0.12703795189244832</v>
       </c>
-      <c r="O6" s="41">
+      <c r="O6" s="45">
         <f>E9*F9*3.41+INDEX(Background!P29:P44, MATCH(E9*F9*G9,Background!M29:M44,1))</f>
         <v>20056.968959999998</v>
       </c>
-      <c r="P6" s="42"/>
-    </row>
-    <row r="7" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="P6" s="51"/>
+    </row>
+    <row r="7" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="61">
         <v>55</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="52"/>
-      <c r="K7" s="39" t="s">
+      <c r="F7" s="62"/>
+      <c r="G7" s="63"/>
+      <c r="K7" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
       <c r="N7" s="36">
         <f>O7/O9</f>
         <v>9.553102701698149E-2</v>
       </c>
-      <c r="O7" s="41">
+      <c r="O7" s="45">
         <f>EXP(-0.76578)*((E9*F9*G9)^(0.604316))*(Background!T48^0.855344)</f>
         <v>15082.601813501198</v>
       </c>
-      <c r="P7" s="42"/>
-    </row>
-    <row r="8" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D8" s="63" t="s">
+      <c r="P7" s="51"/>
+    </row>
+    <row r="8" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D8" s="66" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -6482,15 +6493,15 @@
       <c r="G8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="56"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="43"/>
       <c r="S8" s="10"/>
     </row>
-    <row r="9" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D9" s="63"/>
+    <row r="9" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D9" s="66"/>
       <c r="E9" s="12">
         <v>50</v>
       </c>
@@ -6500,70 +6511,616 @@
       <c r="G9" s="13">
         <v>30</v>
       </c>
-      <c r="K9" s="57" t="s">
+      <c r="K9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="41">
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="45">
         <f>O4+O5+O6+O7</f>
         <v>157881.70905793918</v>
       </c>
-      <c r="P9" s="56"/>
+      <c r="P9" s="43"/>
       <c r="S9" s="10"/>
     </row>
-    <row r="10" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
-      <c r="K10" s="57" t="s">
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
+      <c r="K10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="41">
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="45">
         <f>O9*(100+S4)/100</f>
         <v>173669.87996373311</v>
       </c>
-      <c r="P10" s="42"/>
-    </row>
-    <row r="11" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P10" s="51"/>
+    </row>
+    <row r="11" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-      <c r="K11" s="58" t="s">
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+      <c r="K11" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="61">
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="49">
         <f>O10*24/S5</f>
         <v>260504.81994559965</v>
       </c>
-      <c r="P11" s="62"/>
+      <c r="P11" s="50"/>
       <c r="S11" s="32"/>
     </row>
-    <row r="14" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D14" s="35"/>
     </row>
-    <row r="17" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S17" s="8"/>
     </row>
-    <row r="18" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S18" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:P4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{72D4A27B-56F8-4EB5-8698-1EFF31051027}">
+          <x14:formula1>
+            <xm:f>Background!$I$4:$I$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>E10:G10</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B451AB-9132-489C-BD88-995636ABBA55}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="D2:S11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="K3" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="57"/>
+    </row>
+    <row r="4" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="58">
+        <v>40</v>
+      </c>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="K4" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="36">
+        <f>O4/O9</f>
+        <v>0.30348883793166204</v>
+      </c>
+      <c r="O4" s="45">
+        <f>(1/28.57)*(E5-E4)*(2*E9*G9+2*F9*G9+E9*F9)+IF(E10= "On Grade",Background!K54,Background!K55)</f>
+        <v>34094.466755740003</v>
+      </c>
+      <c r="P4" s="51"/>
+      <c r="R4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="61">
+        <v>85</v>
+      </c>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
+      <c r="K5" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="36">
+        <f>O5/O9</f>
+        <v>0.10698810470095446</v>
+      </c>
+      <c r="O5" s="45">
+        <f>E9*F9*G9/3.003*10*0.77/24</f>
+        <v>12019.230769230768</v>
+      </c>
+      <c r="P5" s="51"/>
+      <c r="R5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="61">
+        <v>83</v>
+      </c>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
+      <c r="K6" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="36">
+        <f>O6/O9</f>
+        <v>0.46228529049812339</v>
+      </c>
+      <c r="O6" s="45">
+        <f>5500+1190+E9*F9*3.412*2+INDEX(Background!F54:F69, MATCH(E9*F9*G9, Background!C54:C69,1))</f>
+        <v>51933.937919999997</v>
+      </c>
+      <c r="P6" s="51"/>
+    </row>
+    <row r="7" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="61">
+        <v>55</v>
+      </c>
+      <c r="F7" s="62"/>
+      <c r="G7" s="63"/>
+      <c r="K7" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="36">
+        <f>O7/O9</f>
+        <v>0.12723776686925997</v>
+      </c>
+      <c r="O7" s="45">
+        <f>EXP(-2.12574098749113)*((E9*F9*G9)^(0.671769546909657))*(Background!J73^0.989037300244508)</f>
+        <v>14294.113227239715</v>
+      </c>
+      <c r="P7" s="51"/>
+    </row>
+    <row r="8" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D8" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="52"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="43"/>
+    </row>
+    <row r="9" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D9" s="66"/>
+      <c r="E9" s="12">
+        <v>75</v>
+      </c>
+      <c r="F9" s="11">
+        <v>50</v>
+      </c>
+      <c r="G9" s="13">
+        <v>30</v>
+      </c>
+      <c r="K9" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="45">
+        <f>O4+O5+O6+O7</f>
+        <v>112341.74867221049</v>
+      </c>
+      <c r="P9" s="43"/>
+    </row>
+    <row r="10" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
+      <c r="K10" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="45">
+        <f>O9*(100+S4)/100</f>
+        <v>123575.92353943155</v>
+      </c>
+      <c r="P10" s="51"/>
+    </row>
+    <row r="11" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+      <c r="K11" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="49">
+        <f>O10*24/S5</f>
+        <v>185363.88530914733</v>
+      </c>
+      <c r="P11" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:P4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9BBAEC90-E860-4744-878F-11DAF28A182B}">
+          <x14:formula1>
+            <xm:f>Background!$I$4:$I$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>E10:G10</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D2856A-FD02-45CC-B694-5236BDE27392}">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="D2:S45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="K3" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="57"/>
+    </row>
+    <row r="4" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="58">
+        <v>-20</v>
+      </c>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="K4" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="36">
+        <f>O4/O9</f>
+        <v>0.37193927552466505</v>
+      </c>
+      <c r="O4" s="45">
+        <f>(1/28.57)*(E5-E4)*(2*E9*G9+2*F9*G9+E9*F9)+IF(E10= "On Grade",Background!U54,Background!U55)</f>
+        <v>39275.2594996033</v>
+      </c>
+      <c r="P4" s="51"/>
+      <c r="R4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="61">
+        <v>85</v>
+      </c>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
+      <c r="K5" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="36">
+        <f>O5/O9</f>
+        <v>2.5425375350298214E-2</v>
+      </c>
+      <c r="O5" s="45">
+        <f>E9*F9*G9/3.003*(10*0.43/24)</f>
+        <v>2684.8151848151847</v>
+      </c>
+      <c r="P5" s="51"/>
+      <c r="R5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="61">
+        <v>95</v>
+      </c>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
+      <c r="K6" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="36">
+        <f>O6/O9</f>
+        <v>0.48477856856655821</v>
+      </c>
+      <c r="O6" s="45">
+        <f>5500+1880+E9*F9*3.412*2+INDEX(Background!P54:P70, MATCH(E9*F9*G9, Background!M54:M70,1))</f>
+        <v>51190.62528</v>
+      </c>
+      <c r="P6" s="51"/>
+    </row>
+    <row r="7" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="61">
+        <v>55</v>
+      </c>
+      <c r="F7" s="62"/>
+      <c r="G7" s="63"/>
+      <c r="K7" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="36">
+        <f>O7/O9</f>
+        <v>0.11785678055847849</v>
+      </c>
+      <c r="O7" s="45">
+        <f>0.0001299*(E9*F9*G9)^(0.5135)*Background!T73*3412.142</f>
+        <v>12445.191849375107</v>
+      </c>
+      <c r="P7" s="51"/>
+    </row>
+    <row r="8" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D8" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="52"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="43"/>
+    </row>
+    <row r="9" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D9" s="66"/>
+      <c r="E9" s="12">
+        <v>90</v>
+      </c>
+      <c r="F9" s="11">
+        <v>50</v>
+      </c>
+      <c r="G9" s="13">
+        <v>10</v>
+      </c>
+      <c r="K9" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="45">
+        <f>O4+O5+O6+O7</f>
+        <v>105595.8918137936</v>
+      </c>
+      <c r="P9" s="43"/>
+    </row>
+    <row r="10" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
+      <c r="K10" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="45">
+        <f>O9*(100+S4)/100</f>
+        <v>116155.48099517295</v>
+      </c>
+      <c r="P10" s="51"/>
+    </row>
+    <row r="11" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+      <c r="K11" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="49">
+        <f>O10*24/S5</f>
+        <v>154873.9746602306</v>
+      </c>
+      <c r="P11" s="50"/>
+    </row>
+    <row r="45" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="M45" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -6594,10 +7151,11 @@
     <mergeCell ref="O10:P10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{72D4A27B-56F8-4EB5-8698-1EFF31051027}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1C401F8D-F1F8-4952-8CB8-CD3C26B727CB}">
           <x14:formula1>
             <xm:f>Background!$I$4:$I$5</xm:f>
           </x14:formula1>
@@ -6609,64 +7167,63 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B451AB-9132-489C-BD88-995636ABBA55}">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="D2:S11"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9E9129-4B28-4E87-B926-28ABACF02A42}">
+  <sheetPr codeName="Sheet14"/>
+  <dimension ref="D2:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:G10"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="25.5546875" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="K3" s="44" t="s">
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="K3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="46"/>
-    </row>
-    <row r="4" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="57"/>
+    </row>
+    <row r="4" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="47">
-        <v>40</v>
-      </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
-      <c r="K4" s="39" t="s">
+      <c r="E4" s="58">
+        <v>35</v>
+      </c>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="K4" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="36">
         <f>O4/O9</f>
-        <v>0.30348883793166204</v>
-      </c>
-      <c r="O4" s="41">
-        <f>(1/28.57)*(E5-E4)*(2*E9*G9+2*F9*G9+E9*F9)+IF(E10= "On Grade",Background!K54,Background!K55)</f>
-        <v>34094.466755740003</v>
-      </c>
-      <c r="P4" s="42"/>
+        <v>0.47774887726221715</v>
+      </c>
+      <c r="O4" s="45">
+        <f>(1/28.57)*(E5-E4)*(2*E9*G9+2*F9*G9+E9*F9)+IF(E10= "On Grade",Background!K79,Background!K80)</f>
+        <v>27957.788148891603</v>
+      </c>
+      <c r="P4" s="51"/>
       <c r="R4" t="s">
         <v>21</v>
       </c>
@@ -6674,29 +7231,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="50">
-        <v>85</v>
-      </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
-      <c r="K5" s="39" t="s">
+      <c r="E5" s="61">
+        <v>100</v>
+      </c>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
+      <c r="K5" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
       <c r="N5" s="36">
         <f>O5/O9</f>
-        <v>0.10698810470095446</v>
-      </c>
-      <c r="O5" s="41">
-        <f>E9*F9*G9/3.003*10*0.77/24</f>
-        <v>12019.230769230768</v>
-      </c>
-      <c r="P5" s="42"/>
+        <v>0.13706177682225859</v>
+      </c>
+      <c r="O5" s="45">
+        <f>E9*F9*G9*10*0.77/24</f>
+        <v>8020.833333333333</v>
+      </c>
+      <c r="P5" s="51"/>
       <c r="R5" t="s">
         <v>20</v>
       </c>
@@ -6704,56 +7261,56 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="50">
-        <v>83</v>
-      </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
-      <c r="K6" s="39" t="s">
+      <c r="E6" s="61">
+        <v>87</v>
+      </c>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
+      <c r="K6" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
       <c r="N6" s="36">
         <f>O6/O9</f>
-        <v>0.46228529049812339</v>
-      </c>
-      <c r="O6" s="41">
-        <f>5500+1190+E9*F9*3.412*2+INDEX(Background!F54:F69, MATCH(E9*F9*G9, Background!C54:C69,1))</f>
-        <v>51933.937919999997</v>
-      </c>
-      <c r="P6" s="42"/>
-    </row>
-    <row r="7" spans="4:19" x14ac:dyDescent="0.3">
+        <v>0.25771281129355478</v>
+      </c>
+      <c r="O6" s="45">
+        <f>E9*F9*3.412*1+INDEX(Background!F79:F94, MATCH(E9*F9*G9, Background!C79:C94,1))</f>
+        <v>15081.31264</v>
+      </c>
+      <c r="P6" s="51"/>
+    </row>
+    <row r="7" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="61">
         <v>55</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="52"/>
-      <c r="K7" s="39" t="s">
+      <c r="F7" s="62"/>
+      <c r="G7" s="63"/>
+      <c r="K7" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
       <c r="N7" s="36">
         <f>O7/O9</f>
-        <v>0.12723776686925997</v>
-      </c>
-      <c r="O7" s="41">
-        <f>EXP(-2.12574098749113)*((E9*F9*G9)^(0.671769546909657))*(Background!J73^0.989037300244508)</f>
-        <v>14294.113227239715</v>
-      </c>
-      <c r="P7" s="42"/>
-    </row>
-    <row r="8" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D8" s="63" t="s">
+        <v>0.12747653462196942</v>
+      </c>
+      <c r="O7" s="45">
+        <f>EXP(-0.832116360651863)*((E9*F9*G9)^(0.515379988125453))*(Background!J98^1.01725235117876)</f>
+        <v>7459.9064875661679</v>
+      </c>
+      <c r="P7" s="51"/>
+    </row>
+    <row r="8" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D8" s="66" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -6765,351 +7322,80 @@
       <c r="G8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="56"/>
-    </row>
-    <row r="9" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D9" s="63"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="43"/>
+    </row>
+    <row r="9" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D9" s="66"/>
       <c r="E9" s="12">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F9" s="11">
         <v>50</v>
       </c>
       <c r="G9" s="13">
-        <v>30</v>
-      </c>
-      <c r="K9" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="41">
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="45">
         <f>O4+O5+O6+O7</f>
-        <v>112341.74867221049</v>
-      </c>
-      <c r="P9" s="56"/>
-    </row>
-    <row r="10" spans="4:19" x14ac:dyDescent="0.3">
+        <v>58519.840609791107</v>
+      </c>
+      <c r="P9" s="43"/>
+    </row>
+    <row r="10" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
-      <c r="K10" s="57" t="s">
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
+      <c r="K10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="41">
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="45">
         <f>O9*(100+S4)/100</f>
-        <v>123575.92353943155</v>
-      </c>
-      <c r="P10" s="42"/>
-    </row>
-    <row r="11" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>64371.824670770213</v>
+      </c>
+      <c r="P10" s="51"/>
+    </row>
+    <row r="11" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-      <c r="K11" s="58" t="s">
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+      <c r="K11" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="61">
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="49">
         <f>O10*24/S5</f>
-        <v>185363.88530914733</v>
-      </c>
-      <c r="P11" s="62"/>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="O10:P10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9BBAEC90-E860-4744-878F-11DAF28A182B}">
-          <x14:formula1>
-            <xm:f>Background!$I$4:$I$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>E10:G10</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D2856A-FD02-45CC-B694-5236BDE27392}">
-  <sheetPr codeName="Sheet11"/>
-  <dimension ref="D2:S45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="19.109375" customWidth="1"/>
-    <col min="18" max="18" width="17.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="K3" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="46"/>
-    </row>
-    <row r="4" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="47">
-        <v>-20</v>
-      </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
-      <c r="K4" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="36">
-        <f>O4/O9</f>
-        <v>0.37193927552466505</v>
-      </c>
-      <c r="O4" s="41">
-        <f>(1/28.57)*(E5-E4)*(2*E9*G9+2*F9*G9+E9*F9)+IF(E10= "On Grade",Background!U54,Background!U55)</f>
-        <v>39275.2594996033</v>
-      </c>
-      <c r="P4" s="42"/>
-      <c r="R4" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="50">
-        <v>85</v>
-      </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
-      <c r="K5" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="36">
-        <f>O5/O9</f>
-        <v>2.5425375350298214E-2</v>
-      </c>
-      <c r="O5" s="41">
-        <f>E9*F9*G9/3.003*(10*0.43/24)</f>
-        <v>2684.8151848151847</v>
-      </c>
-      <c r="P5" s="42"/>
-      <c r="R5" t="s">
-        <v>20</v>
-      </c>
-      <c r="S5" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="50">
-        <v>95</v>
-      </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
-      <c r="K6" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="36">
-        <f>O6/O9</f>
-        <v>0.48477856856655821</v>
-      </c>
-      <c r="O6" s="41">
-        <f>5500+1880+E9*F9*3.412*2+INDEX(Background!P54:P70, MATCH(E9*F9*G9, Background!M54:M70,1))</f>
-        <v>51190.62528</v>
-      </c>
-      <c r="P6" s="42"/>
-    </row>
-    <row r="7" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="50">
-        <v>55</v>
-      </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="52"/>
-      <c r="K7" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="36">
-        <f>O7/O9</f>
-        <v>0.11785678055847849</v>
-      </c>
-      <c r="O7" s="41">
-        <f>0.0001299*(E9*F9*G9)^(0.5135)*Background!T73*3412.142</f>
-        <v>12445.191849375107</v>
-      </c>
-      <c r="P7" s="42"/>
-    </row>
-    <row r="8" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D8" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="56"/>
-    </row>
-    <row r="9" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D9" s="63"/>
-      <c r="E9" s="12">
-        <v>90</v>
-      </c>
-      <c r="F9" s="11">
-        <v>50</v>
-      </c>
-      <c r="G9" s="13">
-        <v>10</v>
-      </c>
-      <c r="K9" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="41">
-        <f>O4+O5+O6+O7</f>
-        <v>105595.8918137936</v>
-      </c>
-      <c r="P9" s="56"/>
-    </row>
-    <row r="10" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
-      <c r="K10" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="41">
-        <f>O9*(100+S4)/100</f>
-        <v>116155.48099517295</v>
-      </c>
-      <c r="P10" s="42"/>
-    </row>
-    <row r="11" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-      <c r="K11" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="61">
-        <f>O10*24/S5</f>
-        <v>154873.9746602306</v>
-      </c>
-      <c r="P11" s="62"/>
-    </row>
-    <row r="45" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="M45" s="8"/>
+        <v>96557.737006155323</v>
+      </c>
+      <c r="P11" s="50"/>
+    </row>
+    <row r="16" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -7140,281 +7426,6 @@
     <mergeCell ref="O4:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1C401F8D-F1F8-4952-8CB8-CD3C26B727CB}">
-          <x14:formula1>
-            <xm:f>Background!$I$4:$I$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>E10:G10</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9E9129-4B28-4E87-B926-28ABACF02A42}">
-  <sheetPr codeName="Sheet14"/>
-  <dimension ref="D2:S16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="18" max="18" width="18.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="K3" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="46"/>
-    </row>
-    <row r="4" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="47">
-        <v>35</v>
-      </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
-      <c r="K4" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="36">
-        <f>O4/O9</f>
-        <v>0.47774887726221715</v>
-      </c>
-      <c r="O4" s="41">
-        <f>(1/28.57)*(E5-E4)*(2*E9*G9+2*F9*G9+E9*F9)+IF(E10= "On Grade",Background!K79,Background!K80)</f>
-        <v>27957.788148891603</v>
-      </c>
-      <c r="P4" s="42"/>
-      <c r="R4" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="50">
-        <v>100</v>
-      </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
-      <c r="K5" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="36">
-        <f>O5/O9</f>
-        <v>0.13706177682225859</v>
-      </c>
-      <c r="O5" s="41">
-        <f>E9*F9*G9*10*0.77/24</f>
-        <v>8020.833333333333</v>
-      </c>
-      <c r="P5" s="42"/>
-      <c r="R5" t="s">
-        <v>20</v>
-      </c>
-      <c r="S5" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="50">
-        <v>87</v>
-      </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
-      <c r="K6" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="36">
-        <f>O6/O9</f>
-        <v>0.25771281129355478</v>
-      </c>
-      <c r="O6" s="41">
-        <f>E9*F9*3.412*1+INDEX(Background!F79:F94, MATCH(E9*F9*G9, Background!C79:C94,1))</f>
-        <v>15081.31264</v>
-      </c>
-      <c r="P6" s="42"/>
-    </row>
-    <row r="7" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="50">
-        <v>55</v>
-      </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="52"/>
-      <c r="K7" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="36">
-        <f>O7/O9</f>
-        <v>0.12747653462196942</v>
-      </c>
-      <c r="O7" s="41">
-        <f>EXP(-0.832116360651863)*((E9*F9*G9)^(0.515379988125453))*(Background!J98^1.01725235117876)</f>
-        <v>7459.9064875661679</v>
-      </c>
-      <c r="P7" s="42"/>
-    </row>
-    <row r="8" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D8" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="56"/>
-    </row>
-    <row r="9" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D9" s="63"/>
-      <c r="E9" s="12">
-        <v>50</v>
-      </c>
-      <c r="F9" s="11">
-        <v>50</v>
-      </c>
-      <c r="G9" s="13">
-        <v>10</v>
-      </c>
-      <c r="K9" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="41">
-        <f>O4+O5+O6+O7</f>
-        <v>58519.840609791107</v>
-      </c>
-      <c r="P9" s="56"/>
-    </row>
-    <row r="10" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
-      <c r="K10" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="41">
-        <f>O9*(100+S4)/100</f>
-        <v>64371.824670770213</v>
-      </c>
-      <c r="P10" s="42"/>
-    </row>
-    <row r="11" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-      <c r="K11" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="61">
-        <f>O10*24/S5</f>
-        <v>96557.737006155323</v>
-      </c>
-      <c r="P11" s="62"/>
-    </row>
-    <row r="16" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="O10:P10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -7439,55 +7450,55 @@
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="23.77734375" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.44140625" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="K3" s="44" t="s">
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="K3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="46"/>
-    </row>
-    <row r="4" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="57"/>
+    </row>
+    <row r="4" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="58">
         <v>40</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
-      <c r="K4" s="39" t="s">
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="K4" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="36">
         <f>O4/O9</f>
         <v>0.3699369374990884</v>
       </c>
-      <c r="O4" s="41">
+      <c r="O4" s="45">
         <f>(1/28.57)*(E5-E4)*(2*E9*G9+2*F9*G9+E9*F9)+IF(E10= "On Grade",Background!U79,Background!U80)</f>
         <v>36145.094654019238</v>
       </c>
-      <c r="P4" s="42"/>
+      <c r="P4" s="51"/>
       <c r="R4" t="s">
         <v>21</v>
       </c>
@@ -7495,29 +7506,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="61">
         <v>95</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
-      <c r="K5" s="39" t="s">
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
+      <c r="K5" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
       <c r="N5" s="36">
         <f>O5/O9</f>
         <v>7.4153483265948117E-2</v>
       </c>
-      <c r="O5" s="41">
+      <c r="O5" s="45">
         <f>E9*F9*G9*0.333*10*1.1604/24</f>
         <v>7245.2475000000004</v>
       </c>
-      <c r="P5" s="42"/>
+      <c r="P5" s="51"/>
       <c r="R5" t="s">
         <v>20</v>
       </c>
@@ -7525,56 +7536,56 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="61">
         <v>85</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
-      <c r="K6" s="39" t="s">
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
+      <c r="K6" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
       <c r="N6" s="36">
         <f>O6/O9</f>
         <v>0.47216176352939038</v>
       </c>
-      <c r="O6" s="41">
+      <c r="O6" s="45">
         <f>5500+1190+E9*F9*3.412*2+INDEX(Background!P79:P94, MATCH(E9*F9*G9, Background!M79:M94,1))</f>
         <v>46133.08352</v>
       </c>
-      <c r="P6" s="42"/>
-    </row>
-    <row r="7" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="P6" s="51"/>
+    </row>
+    <row r="7" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="61">
         <v>55</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="52"/>
-      <c r="K7" s="39" t="s">
+      <c r="F7" s="62"/>
+      <c r="G7" s="63"/>
+      <c r="K7" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
       <c r="N7" s="36">
         <f>O7/O9</f>
         <v>8.3747815705573117E-2</v>
       </c>
-      <c r="O7" s="41">
+      <c r="O7" s="45">
         <f>EXP(-0.832116360651863)*((E9*F9*G9)^(0.515379988125453))*(Background!T98^1.01725235117876)</f>
         <v>8182.672285199309</v>
       </c>
-      <c r="P7" s="42"/>
-    </row>
-    <row r="8" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D8" s="63" t="s">
+      <c r="P7" s="51"/>
+    </row>
+    <row r="8" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D8" s="66" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -7586,14 +7597,14 @@
       <c r="G8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="56"/>
-    </row>
-    <row r="9" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D9" s="63"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="43"/>
+    </row>
+    <row r="9" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D9" s="66"/>
       <c r="E9" s="12">
         <v>50</v>
       </c>
@@ -7603,79 +7614,65 @@
       <c r="G9" s="13">
         <v>10</v>
       </c>
-      <c r="K9" s="57" t="s">
+      <c r="K9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="41">
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="45">
         <f>O4+O5+O6+O7</f>
         <v>97706.097959218547</v>
       </c>
-      <c r="P9" s="56"/>
-    </row>
-    <row r="10" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="P9" s="43"/>
+    </row>
+    <row r="10" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
-      <c r="K10" s="57" t="s">
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
+      <c r="K10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="41">
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="45">
         <f>O9*(100+S4)/100</f>
         <v>107476.70775514041</v>
       </c>
-      <c r="P10" s="42"/>
-    </row>
-    <row r="11" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P10" s="51"/>
+    </row>
+    <row r="11" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-      <c r="K11" s="58" t="s">
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+      <c r="K11" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="61">
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="49">
         <f>O10*24/S5</f>
         <v>161215.06163271063</v>
       </c>
-      <c r="P11" s="62"/>
-    </row>
-    <row r="16" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="P11" s="50"/>
+    </row>
+    <row r="16" spans="4:19" x14ac:dyDescent="0.25">
       <c r="G16" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="O7:P7"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="K11:N11"/>
     <mergeCell ref="O11:P11"/>
@@ -7687,6 +7684,20 @@
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="K10:N10"/>
     <mergeCell ref="O10:P10"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -7712,54 +7723,54 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="23.77734375" customWidth="1"/>
-    <col min="18" max="18" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="67" t="s">
+    <row r="2" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="K3" s="44" t="s">
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="K3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="46"/>
-    </row>
-    <row r="4" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D4" s="68" t="s">
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="57"/>
+    </row>
+    <row r="4" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="58">
         <v>35</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
-      <c r="K4" s="53" t="s">
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="K4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
       <c r="N4" s="9">
         <f>O4/O9</f>
         <v>0.37771593650170437</v>
       </c>
-      <c r="O4" s="41">
+      <c r="O4" s="45">
         <f>(1/28.57)*(E5-E4)*(2*E9*G9+2*F9*G9+E9*F9)+IF(E10= "On Grade",Background!K4,IF(E10= "Above Grade",Background!K5,Background!K6))</f>
         <v>1979.3331272210239</v>
       </c>
-      <c r="P4" s="42"/>
+      <c r="P4" s="51"/>
       <c r="R4" t="s">
         <v>21</v>
       </c>
@@ -7767,29 +7778,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D5" s="68" t="s">
+    <row r="5" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D5" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="61">
         <v>85</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
-      <c r="K5" s="39" t="s">
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
+      <c r="K5" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
       <c r="N5" s="9">
         <f>O5/O9</f>
         <v>0.12244918381283817</v>
       </c>
-      <c r="O5" s="41">
+      <c r="O5" s="45">
         <f>2*E9*F9*G9*0.77*10/24</f>
         <v>641.66666666666663</v>
       </c>
-      <c r="P5" s="42"/>
+      <c r="P5" s="51"/>
       <c r="R5" t="s">
         <v>20</v>
       </c>
@@ -7797,56 +7808,56 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D6" s="68" t="s">
+    <row r="6" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D6" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="61">
         <v>80</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
-      <c r="K6" s="39" t="s">
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
+      <c r="K6" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
       <c r="N6" s="9">
         <f>O6/O9</f>
         <v>0.1953007360065645</v>
       </c>
-      <c r="O6" s="41">
+      <c r="O6" s="45">
         <f>E9*F9*3.41+INDEX(Background!F4:F19, MATCH(E9*F9*G9, Background!C4:C19,1))</f>
         <v>1023.4284</v>
       </c>
-      <c r="P6" s="42"/>
-    </row>
-    <row r="7" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D7" s="68" t="s">
+      <c r="P6" s="51"/>
+    </row>
+    <row r="7" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D7" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="61">
         <v>55</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="52"/>
-      <c r="K7" s="39" t="s">
+      <c r="F7" s="62"/>
+      <c r="G7" s="63"/>
+      <c r="K7" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
       <c r="N7" s="9">
         <f>O7/O9</f>
         <v>0.30453414367889309</v>
       </c>
-      <c r="O7" s="41">
+      <c r="O7" s="45">
         <f>0.0001367*(E9*F9*G9)^(0.5425)*Background!J23*3412.142*1.45*MIN(1+0.2*(E12-1),1.5)</f>
         <v>1595.8408441439963</v>
       </c>
-      <c r="P7" s="42"/>
-    </row>
-    <row r="8" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D8" s="69" t="s">
+      <c r="P7" s="51"/>
+    </row>
+    <row r="8" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D8" s="67" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -7858,15 +7869,15 @@
       <c r="G8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="56"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="43"/>
       <c r="S8" s="10"/>
     </row>
-    <row r="9" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D9" s="69"/>
+    <row r="9" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D9" s="67"/>
       <c r="E9" s="12">
         <v>10</v>
       </c>
@@ -7876,75 +7887,89 @@
       <c r="G9" s="13">
         <v>10</v>
       </c>
-      <c r="K9" s="57" t="s">
+      <c r="K9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="41">
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="45">
         <f>O4+O5+O6+O7</f>
         <v>5240.2690380316863</v>
       </c>
-      <c r="P9" s="56"/>
+      <c r="P9" s="43"/>
       <c r="S9" s="10"/>
     </row>
-    <row r="10" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D10" s="68" t="s">
+    <row r="10" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D10" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
-      <c r="K10" s="57" t="s">
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
+      <c r="K10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="41">
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="45">
         <f>O9*(100+S4)/100</f>
         <v>5764.2959418348546</v>
       </c>
-      <c r="P10" s="42"/>
-    </row>
-    <row r="11" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="68" t="s">
+      <c r="P10" s="51"/>
+    </row>
+    <row r="11" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="55"/>
-      <c r="G11" s="56"/>
-      <c r="K11" s="58" t="s">
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
+      <c r="K11" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="61">
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="49">
         <f>O10*24/S5</f>
         <v>7685.7279224464728</v>
       </c>
-      <c r="P11" s="62"/>
+      <c r="P11" s="50"/>
       <c r="S11" s="31"/>
     </row>
-    <row r="12" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="70" t="s">
+    <row r="12" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="46">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="O7:P7"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="K11:N11"/>
     <mergeCell ref="O11:P11"/>
@@ -7957,20 +7982,6 @@
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="K10:N10"/>
     <mergeCell ref="O10:P10"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="O5:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
